--- a/DataDrivenTesting/testScriptdata/Vtiger.xlsx
+++ b/DataDrivenTesting/testScriptdata/Vtiger.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{67C9E5BB-9F8A-4FAD-8664-2EE4D1962FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{21B6D909-07E7-4472-9FE6-A826CB4F2F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F8BE1D77-27CF-49C0-9FCC-073B5D103F08}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F8BE1D77-27CF-49C0-9FCC-073B5D103F08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="product" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:S12"/>
+  <oleSize ref="A1:I10"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="150">
   <si>
     <t>ogname</t>
   </si>
@@ -463,12 +463,22 @@
   </si>
   <si>
     <t>Apple iPhone 13 (128GB) - Midnight</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>purushoth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -900,25 +910,25 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.44140625"/>
+    <col min="2" max="2" customWidth="true" width="24.5546875"/>
+    <col min="3" max="3" customWidth="true" width="22.33203125"/>
+    <col min="4" max="4" customWidth="true" width="12.88671875"/>
+    <col min="5" max="5" customWidth="true" width="22.33203125"/>
+    <col min="6" max="6" customWidth="true" width="15.109375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.0"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.77734375"/>
+    <col min="10" max="10" customWidth="true" width="22.33203125"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.109375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="13" max="14" bestFit="true" customWidth="true" width="12.77734375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.44140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -966,75 +976,75 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F2" t="s">
-        <v>61</v>
+      <c r="F2" t="s" s="0">
+        <v>147</v>
       </c>
       <c r="G2" s="4">
         <v>7550244840</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" t="s" s="0">
         <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>41</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>62</v>
       </c>
       <c r="G3" s="4">
         <v>7550244841</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" t="s" s="0">
         <v>107</v>
       </c>
       <c r="L3" s="6" t="s">
@@ -1042,495 +1052,504 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>42</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>63</v>
       </c>
       <c r="G4" s="4">
         <v>7550244842</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="K4" t="s">
+      <c r="I4" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="K4" t="s" s="0">
         <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>43</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F5" t="s">
-        <v>64</v>
+      <c r="F5" t="s" s="0">
+        <v>149</v>
       </c>
       <c r="G5" s="4">
         <v>7550244843</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="K5" t="s">
+      <c r="I5" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="K5" t="s" s="0">
         <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>44</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>65</v>
       </c>
       <c r="G6" s="4">
         <v>7550244844</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" t="s" s="0">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>45</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>66</v>
       </c>
       <c r="G7" s="4">
         <v>7550244845</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" t="s" s="0">
         <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>46</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>67</v>
       </c>
       <c r="G8" s="4">
         <v>7550244846</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" t="s" s="0">
         <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>47</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>68</v>
       </c>
       <c r="G9" s="4">
         <v>7550244847</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" t="s" s="0">
         <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>48</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="0">
         <v>69</v>
       </c>
       <c r="G10" s="4">
         <v>7550244848</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" t="s" s="0">
         <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>49</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="0">
         <v>70</v>
       </c>
       <c r="G11" s="4">
         <v>7550244849</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" t="s" s="0">
         <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>50</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="s" s="0">
         <v>71</v>
       </c>
       <c r="G12" s="4">
         <v>7550244850</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" t="s" s="0">
         <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="s" s="0">
         <v>72</v>
       </c>
       <c r="G13" s="4">
         <v>7550244851</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" t="s" s="0">
         <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="s" s="0">
         <v>73</v>
       </c>
       <c r="G14" s="4">
         <v>7550244852</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" t="s" s="0">
         <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="s" s="0">
         <v>74</v>
       </c>
       <c r="G15" s="4">
         <v>7550244853</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" t="s" s="0">
         <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="s" s="0">
         <v>75</v>
       </c>
       <c r="G16" s="4">
         <v>7550244854</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" t="s" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="s" s="0">
         <v>76</v>
       </c>
       <c r="G17" s="4">
         <v>7550244855</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" t="s" s="0">
         <v>121</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="s" s="0">
         <v>77</v>
       </c>
       <c r="G18" s="4">
         <v>7550244856</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" t="s" s="0">
         <v>122</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="s" s="0">
         <v>78</v>
       </c>
       <c r="G19" s="4">
         <v>7550244857</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" t="s" s="0">
         <v>123</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="s" s="0">
         <v>79</v>
       </c>
       <c r="G20" s="4">
         <v>7550244858</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" t="s" s="0">
         <v>124</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>26</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
+      <c r="B34" t="s" s="0">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
+      <c r="B35" t="s" s="0">
         <v>20</v>
       </c>
     </row>
@@ -1544,14 +1563,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2C066C-24EA-43CF-8006-39B783368AB6}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.33203125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
